--- a/TestCasesTemplate.xlsx
+++ b/TestCasesTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -50,19 +50,247 @@
     <t>Test001</t>
   </si>
   <si>
-    <t>Checking if the bloom filter is empty</t>
-  </si>
-  <si>
-    <t>Compile the code (BloomFilterTest) and select option 3 from the menu "check Empty" after initializing the set capacity and key size</t>
-  </si>
-  <si>
-    <t>Initially the bloom filter is empty ,hence empty status should be true</t>
-  </si>
-  <si>
-    <t>Empty Status = true</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Checking user Credentials</t>
+  </si>
+  <si>
+    <t>User will be navigated to the login page and prompted for login credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Click on "Login/SignUp" from the menu and navigate to login page.
+2)Enter the user credentials.
+</t>
+  </si>
+  <si>
+    <t>If the User enters the correct credentials.</t>
+  </si>
+  <si>
+    <t>These credentials are validatedand user is navigated to  home page</t>
+  </si>
+  <si>
+    <t>If the User enters the wrong credentials.</t>
+  </si>
+  <si>
+    <t>If wrong credentials are given user is prompted to re-enter his credentials.</t>
+  </si>
+  <si>
+    <t>Test002</t>
+  </si>
+  <si>
+    <t>Navigating to "About" Page</t>
+  </si>
+  <si>
+    <t>User can be navigated to "About" page even if he is not logged into the system.</t>
+  </si>
+  <si>
+    <t>User will be naviagated to "About" page</t>
+  </si>
+  <si>
+    <t>Test003</t>
+  </si>
+  <si>
+    <t>Navigating to "Contatct Us" Page</t>
+  </si>
+  <si>
+    <t>User can be navigated to "Contatct Us" page even if he is not logged into the system.</t>
+  </si>
+  <si>
+    <t>User will be naviagated to "Contatct Us" page</t>
+  </si>
+  <si>
+    <t>Test004</t>
+  </si>
+  <si>
+    <t>Navigating to  "Connect with Student"</t>
+  </si>
+  <si>
+    <t>Test005</t>
+  </si>
+  <si>
+    <t>User can log into the system as "Admin/Student/Alumini", on successful validation the user credentials from the main menu user selects "Connect-&gt;Connect With Student" and navigated to this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat the steps as Test004 for navigation, User can enter the search related information in the search field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for new student connections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User will be prompted with all the results related to search key with two buttons "view Details" and "unfollow" if the student is already a connection.
+If the user does not have the student as connection,then "add to contact" will be displayed.   </t>
+  </si>
+  <si>
+    <t>Test006</t>
+  </si>
+  <si>
+    <t>Adding a new Student Connection</t>
+  </si>
+  <si>
+    <t>New connection with the student will be created</t>
+  </si>
+  <si>
+    <t>Test007</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test004,all the connections of the user will be displayed.
+The user can click on "Unfollow" button of the connect from the data in the grid which we wants to unfollow.</t>
+  </si>
+  <si>
+    <t>The unfollowed contact will be removed from the list and The remaining connections of the user will be displayed.</t>
+  </si>
+  <si>
+    <t>Test008</t>
+  </si>
+  <si>
+    <t>View Details of Contact</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test004,all the connections of the user will be displayed.
+The user can click on "View Details" button of the connect from the data in the grid , which he wants to view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user will be navigated to a new page where the details of the contacts will be displayed. </t>
+  </si>
+  <si>
+    <t>Test009</t>
+  </si>
+  <si>
+    <t>Navigating to  "Connect with Alumni"</t>
+  </si>
+  <si>
+    <t>User can log into the system as "Admin/Student/Alumni", on successful validation the user credentials from the main menu user selects "Connect-&gt;Connect With Alumni" and navigated to this page</t>
+  </si>
+  <si>
+    <t>User will be navigated "Connect With Alumni" page and all the users connections of alumni will be visible</t>
+  </si>
+  <si>
+    <t>User will be navigated "Connect With Student" page and all the users student connections will be visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for new Alumni connections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat the steps as Test009 for navigation, User can enter the search related information in the search field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User will be prompted with all the results related to search key with two buttons "view Details" and "unfollow" if the alumni is already a connection.
+If the user does not have the alumni as connection,then "add to contact" will be displayed.   </t>
+  </si>
+  <si>
+    <t>Test010</t>
+  </si>
+  <si>
+    <t>Test011</t>
+  </si>
+  <si>
+    <t>Adding a new Alumni Connection</t>
+  </si>
+  <si>
+    <t>Repeat the steps as Test009 for searching the alumni contacts, if a match is found then User can click on "add to contact" . 
+If the user is following the contact then "unfollow" button will be shown along with "view details" button</t>
+  </si>
+  <si>
+    <t>Repeat the steps as Test005 for searching the student contacts, if a match is found then User can click on "add to contact" . 
+If the user is following the contact then "unfollow" button will be shown along with "view details" button</t>
+  </si>
+  <si>
+    <t>New connection of the user with the Alumni will be created</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test009,all the connections of the user will be displayed.
+The user can click on "Unfollow" button of the connect from the data in the grid which we wants to unfollow.</t>
+  </si>
+  <si>
+    <t>Deleting an alumni connection</t>
+  </si>
+  <si>
+    <t>Deleting a student connection</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test009,all the connections of the user will be displayed.
+The user can click on "View Details" button of the connect from the data in the grid , which he wants to view.</t>
+  </si>
+  <si>
+    <t>View Details of Alumni Contact</t>
+  </si>
+  <si>
+    <t>Test012</t>
+  </si>
+  <si>
+    <t>Test013</t>
+  </si>
+  <si>
+    <t>Test014</t>
+  </si>
+  <si>
+    <t>Navigating to  "Connect with Faculty"</t>
+  </si>
+  <si>
+    <t>User can log into the system as "Admin/Student/Alumni", on successful validation the user credentials from the main menu user selects "Connect-&gt;Connect With Faculty" and navigated to this page</t>
+  </si>
+  <si>
+    <t>User will be navigated "Connect With Faculty" page and all the users connections of Faculty will be visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat the steps as Test014 for navigation, User can enter the search related information in the search field </t>
+  </si>
+  <si>
+    <t>Test015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for faculty connections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User will be prompted with all the results related to search key with two buttons "view Details" and "unfollow" if the faculty is already a connection.
+If the user does not have the faculty as connection,then "add to contact" will be displayed.   </t>
+  </si>
+  <si>
+    <t>Adding a new faculty Connection</t>
+  </si>
+  <si>
+    <t>New connection of the user with the faculty will be created</t>
+  </si>
+  <si>
+    <t>View Details of faculty Contact</t>
+  </si>
+  <si>
+    <t>Repeat the steps as Test014 for searching the faculty contacts, if a match is found then User can click on "add to contact" . 
+If the user is following the contact then "unfollow" button will be shown along with "view details" button</t>
+  </si>
+  <si>
+    <t>Test016</t>
+  </si>
+  <si>
+    <t>Deleting a faculty connection</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test014,all the connections of the user will be displayed.
+The user can click on "Unfollow" button of the connect from the data in the grid which we wants to unfollow.</t>
+  </si>
+  <si>
+    <t>User on successful navigation following steps in Test014,all the connections of the user will be displayed.
+The user can click on "View Details" button of the connect from the data in the grid , which he wants to view.</t>
+  </si>
+  <si>
+    <t>Test017</t>
+  </si>
+  <si>
+    <t>Test018</t>
+  </si>
+  <si>
+    <t>Test019</t>
+  </si>
+  <si>
+    <t>Request a Document</t>
+  </si>
+  <si>
+    <t>The user must be logged in as an Alumni to place a request for a document. User can navigate to "Document Request" and select the document type from the drop down list.
+The user can add related information about the request in the text box and submit the request .</t>
+  </si>
+  <si>
+    <t>The user will be prompted with an alert "after the request is submitted successfully.</t>
   </si>
 </sst>
 </file>
@@ -113,13 +341,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,15 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,30 +669,473 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>